--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shikhar Dhawan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2051,7 +2116,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2267,7 +2331,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2319,7 +2383,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2371,7 +2435,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2579,7 +2643,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2631,7 +2695,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2683,7 +2747,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2735,7 +2799,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2787,7 +2851,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2839,7 +2903,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2891,7 +2955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2943,7 +3007,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2995,7 +3059,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3047,7 +3111,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3099,7 +3163,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3151,7 +3215,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3203,7 +3267,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3255,7 +3319,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3307,7 +3371,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3359,7 +3423,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3411,7 +3475,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3463,7 +3527,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3515,7 +3579,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3567,7 +3631,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3619,7 +3683,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3671,7 +3735,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3723,7 +3787,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3775,7 +3839,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3827,7 +3891,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3879,7 +3943,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3931,7 +3995,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3983,7 +4047,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4035,7 +4099,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4087,7 +4151,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4139,7 +4203,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4191,7 +4255,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4243,7 +4307,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4295,7 +4359,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4347,7 +4411,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4399,7 +4463,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4451,7 +4515,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4503,7 +4567,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4555,7 +4619,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4607,7 +4671,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4659,7 +4723,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4711,7 +4775,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4763,7 +4827,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4815,7 +4879,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4867,7 +4931,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4919,7 +4983,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4971,7 +5035,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5023,7 +5087,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5075,7 +5139,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5127,7 +5191,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5179,7 +5243,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5231,7 +5295,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5283,7 +5347,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5335,7 +5399,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5387,7 +5451,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5439,7 +5503,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5491,7 +5555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5543,7 +5607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5595,7 +5659,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5647,7 +5711,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5699,7 +5763,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5751,7 +5815,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5803,7 +5867,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5855,7 +5919,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5907,7 +5971,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5959,7 +6023,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6011,7 +6075,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6063,7 +6127,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6115,7 +6179,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6167,7 +6231,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6219,7 +6283,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6271,7 +6335,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6323,7 +6387,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6375,7 +6439,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6427,7 +6491,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6479,7 +6543,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6531,7 +6595,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6583,7 +6647,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6635,7 +6699,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6687,7 +6751,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6739,7 +6803,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6791,7 +6855,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6843,7 +6907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6895,7 +6959,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6947,7 +7011,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6999,7 +7063,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7051,7 +7115,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7103,7 +7167,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7155,7 +7219,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7207,7 +7271,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7247,7 +7311,6 @@
           <t>131</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -7255,7 +7318,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7307,7 +7370,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7359,7 +7422,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7411,7 +7474,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7463,7 +7526,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7503,7 +7566,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>19/01/2020</t>
@@ -7511,7 +7573,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7563,7 +7625,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7615,7 +7677,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7667,7 +7729,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7719,7 +7781,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7771,7 +7833,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7823,7 +7885,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7875,7 +7937,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7927,7 +7989,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7979,7 +8041,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8031,7 +8093,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8083,7 +8145,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8135,7 +8197,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8187,7 +8249,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8239,7 +8301,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8291,7 +8353,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8343,7 +8405,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8395,7 +8457,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8447,7 +8509,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8499,7 +8561,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8551,7 +8613,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8603,7 +8665,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8655,7 +8717,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8707,7 +8769,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8759,7 +8821,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8811,7 +8873,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8863,7 +8925,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8915,7 +8977,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8967,7 +9029,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9019,7 +9081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9071,7 +9133,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9123,7 +9185,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9154,6 +9216,587 @@
       <c r="J168" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.55%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.77%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.19%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.49%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.78%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.19%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.76%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.61%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.53%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.79%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.76%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.01%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3832.xlsx
@@ -9230,7 +9230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9273,27 +9273,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.55%</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9303,7 +9299,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9311,7 +9307,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9321,7 +9317,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>23.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9333,7 +9329,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9341,7 +9337,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9351,7 +9347,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.19%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9363,27 +9359,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.16%</t>
-        </is>
-      </c>
+          <t>3296</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9393,25 +9375,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9423,25 +9405,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.49%</t>
+          <t>34.44%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -9453,13 +9435,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.22%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9469,15 +9465,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9487,7 +9483,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.78%</t>
+          <t>47.06%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -9499,27 +9495,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>42.19%</t>
-        </is>
-      </c>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9529,27 +9511,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.76%</t>
-        </is>
-      </c>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9559,13 +9527,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9575,13 +9557,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.83%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9591,15 +9587,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9609,7 +9605,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>22.19%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -9621,15 +9617,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9639,7 +9635,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>12.61%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -9651,15 +9647,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9669,7 +9665,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -9681,7 +9677,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -9697,27 +9693,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.79%</t>
-        </is>
-      </c>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9727,7 +9709,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -9735,7 +9717,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9745,7 +9727,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.76%</t>
+          <t>18.72%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -9757,7 +9739,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4682</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -9765,17 +9747,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.01%</t>
+          <t>24.55%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -9787,7 +9769,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -9800,6 +9782,3706 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.24%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15.67%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.74%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>11.94%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4.17%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>45.75%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>34.52%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10.61%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.13%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>19.00%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.33%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>44.63%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13.46%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.46%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19.31%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.66%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7.72%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>9.31%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5.16%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.05%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.32%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>38.94%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40.41%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>17.36%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.32%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>45.66%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>25.08%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>37.72%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>12.41%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>8.74%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>14.87%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>15.25%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.05%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22.99%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>47.90%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>9.03%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>14.58%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>5.71%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>9.83%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>48.08%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>11.43%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>14.13%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>39.94%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>33.24%</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.02%</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28.24%</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>5.30%</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>30.91%</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.36%</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>32.70%</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10.47%</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>5.78%</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>10.10%</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.55%</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>3.77%</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.19%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>31.49%</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.78%</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>42.19%</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>19.76%</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4.61%</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>23.53%</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>12.79%</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>3.76%</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>3.01%</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
